--- a/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,9</t>
+          <t>2,35; 6,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,35</t>
+          <t>0,37; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,84</t>
+          <t>1,32; 2,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,74</t>
+          <t>1,23; 2,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,4</t>
+          <t>1,16; 2,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,42</t>
+          <t>1,37; 2,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,24</t>
+          <t>0,57; 2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,6</t>
+          <t>0,77; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,05</t>
+          <t>0,86; 2,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,84</t>
+          <t>1,55; 2,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,96</t>
+          <t>1,09; 1,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,14</t>
+          <t>1,4; 2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,0</t>
+          <t>2,32; 5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,34</t>
+          <t>0,34; 1,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,85</t>
+          <t>1,31; 2,84</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,91</t>
+          <t>1,28; 2,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,34</t>
+          <t>1,16; 2,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,4</t>
+          <t>1,35; 2,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,4</t>
+          <t>0,55; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,52</t>
+          <t>0,8; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,06</t>
+          <t>0,83; 2,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,73</t>
+          <t>1,54; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,93</t>
+          <t>1,11; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,12</t>
+          <t>1,42; 2,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,9</t>
+          <t>2,17; 5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,35</t>
+          <t>0,33; 1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,84</t>
+          <t>1,24; 2,73</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,74</t>
+          <t>1,02; 2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,4</t>
+          <t>1,01; 2,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,42</t>
+          <t>1,14; 2,22</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,24</t>
+          <t>0,57; 2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,6</t>
+          <t>0,82; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,05</t>
+          <t>0,85; 2,17</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,84</t>
+          <t>1,35; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,96</t>
+          <t>1,0; 1,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,14</t>
+          <t>1,3; 2,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que sufre violencia física, emocional o sexual</t>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,5</t>
+          <t>2,32; 5,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,32</t>
+          <t>0,35; 1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,73</t>
+          <t>1,26; 2,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,54</t>
+          <t>1,05; 2,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,2</t>
+          <t>0,98; 2,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,22</t>
+          <t>1,11; 2,16</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,32</t>
+          <t>0,54; 2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,77</t>
+          <t>0,82; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,17</t>
+          <t>0,88; 2,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,59</t>
+          <t>1,36; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,81</t>
+          <t>1,0; 1,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,04</t>
+          <t>1,3; 2,01</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11936; 29627</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2645; 10373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15970; 35541</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38733</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33625</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>72358</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24019; 59607</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21845; 47391</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50246; 97744</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7936</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10248</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18185</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3485; 14259</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5403; 17477</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11454; 28312</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>65414</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49148</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>114562</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46883; 90349</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36435; 64485</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>92470; 142812</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>